--- a/uploads/Volunteer_database.xlsx
+++ b/uploads/Volunteer_database.xlsx
@@ -1,29 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megwu/Desktop/children's Uni/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71F9CDE-FA59-4040-8A4A-ACA2428075F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="1360" windowWidth="21840" windowHeight="13140"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volunteer Details" sheetId="1" r:id="rId1"/>
     <sheet name="Volunteer Hours" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,12 +33,15 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>Induction invite</t>
   </si>
@@ -230,12 +231,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -243,7 +244,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -251,7 +252,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -259,13 +260,13 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -684,164 +685,167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="AJ5" sqref="AJ5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="13" max="13" width="56.5" customWidth="1"/>
-    <col min="14" max="14" width="14.1640625" customWidth="1"/>
-    <col min="15" max="15" width="66.5" customWidth="1"/>
-    <col min="16" max="17" width="52.33203125" customWidth="1"/>
-    <col min="18" max="18" width="54.5" customWidth="1"/>
-    <col min="19" max="19" width="47.5" customWidth="1"/>
-    <col min="20" max="20" width="60.1640625" customWidth="1"/>
-    <col min="21" max="21" width="119.5" customWidth="1"/>
-    <col min="22" max="22" width="52" customWidth="1"/>
-    <col min="23" max="23" width="51.33203125" customWidth="1"/>
-    <col min="24" max="24" width="68" customWidth="1"/>
-    <col min="25" max="25" width="32.83203125" customWidth="1"/>
-    <col min="26" max="27" width="28" customWidth="1"/>
-    <col min="28" max="28" width="34.1640625" customWidth="1"/>
-    <col min="29" max="29" width="31.5" customWidth="1"/>
-    <col min="30" max="30" width="32" customWidth="1"/>
-    <col min="31" max="31" width="31.6640625" customWidth="1"/>
-    <col min="32" max="32" width="44.5" customWidth="1"/>
-    <col min="33" max="33" width="99.1640625" customWidth="1"/>
-    <col min="34" max="34" width="255.6640625" customWidth="1"/>
-    <col min="35" max="35" width="29.5" customWidth="1"/>
-    <col min="36" max="36" width="34" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="14" max="14" width="56.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="66.44140625" customWidth="1"/>
+    <col min="17" max="18" width="52.33203125" customWidth="1"/>
+    <col min="19" max="19" width="54.44140625" customWidth="1"/>
+    <col min="20" max="20" width="47.44140625" customWidth="1"/>
+    <col min="21" max="21" width="60.109375" customWidth="1"/>
+    <col min="22" max="22" width="119.44140625" customWidth="1"/>
+    <col min="23" max="23" width="52" customWidth="1"/>
+    <col min="24" max="24" width="51.33203125" customWidth="1"/>
+    <col min="25" max="25" width="68" customWidth="1"/>
+    <col min="26" max="26" width="32.77734375" customWidth="1"/>
+    <col min="27" max="28" width="28" customWidth="1"/>
+    <col min="29" max="29" width="34.109375" customWidth="1"/>
+    <col min="30" max="30" width="31.44140625" customWidth="1"/>
+    <col min="31" max="31" width="32" customWidth="1"/>
+    <col min="32" max="32" width="31.6640625" customWidth="1"/>
+    <col min="33" max="33" width="44.44140625" customWidth="1"/>
+    <col min="34" max="34" width="99.109375" customWidth="1"/>
+    <col min="35" max="35" width="255.6640625" customWidth="1"/>
+    <col min="36" max="36" width="29.44140625" customWidth="1"/>
+    <col min="37" max="37" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="105" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:37" s="3" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="3">
+      <c r="E2" s="3">
         <v>1144216</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>46</v>
@@ -850,48 +854,51 @@
         <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>37145</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="X2" s="6">
+      <c r="Y2" s="6">
         <v>44866</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AH2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AI2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AK2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -902,22 +909,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>51</v>
       </c>
@@ -925,7 +932,7 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>52</v>
       </c>
@@ -935,7 +942,7 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:8" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
@@ -951,7 +958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>56</v>
       </c>
@@ -967,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>45</v>
       </c>
@@ -988,6 +995,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100840061F9DC321B428F6D5C5DB03A1A63" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="218d44522063d3e139a84098689cd5f5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="180eb382-7469-4407-b6a7-9e3c553560d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7bb75e2003902cea2fab401753615262" ns2:_="">
     <xsd:import namespace="180eb382-7469-4407-b6a7-9e3c553560d8"/>
@@ -1165,29 +1187,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0BB64B-F7BC-4869-AEE4-4D49391B4AD6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D64D96E-A719-4C9A-8209-4A3F7F5CC96D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E309492D-197D-4598-95F3-02B57BC41A75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E309492D-197D-4598-95F3-02B57BC41A75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D64D96E-A719-4C9A-8209-4A3F7F5CC96D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B0BB64B-F7BC-4869-AEE4-4D49391B4AD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="180eb382-7469-4407-b6a7-9e3c553560d8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>